--- a/tspi/ciclo-3/plan3-20095495.xlsx
+++ b/tspi/ciclo-3/plan3-20095495.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogi\Documents\GitHub\PPR\tspi\ciclo-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\PPR\tspi\ciclo-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="469" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -748,7 +748,7 @@
   <dimension ref="A1:ALY10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9123,7 +9123,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9182,34 +9182,76 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="4">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIF('49'!$G:$G,A5,'49'!$F:$F)/60</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUMIF('49'!$G:$G,A6,'49'!$F:$F)/60</f>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="25">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUMIF('49'!$G:$G,A7,'49'!$F:$F)/60</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C7" s="25">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="4">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUMIF('49'!$G:$G,A8,'49'!$F:$F)/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUMIF('49'!$G:$G,A9,'49'!$F:$F)/60</f>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="4">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUMIF('49'!$G:$G,A10,'49'!$F:$F)/60</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -9242,6 +9284,9 @@
       <c r="C16" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C10">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -9256,7 +9301,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9642,7 +9687,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="20">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>47</v>
@@ -9669,7 +9714,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="20">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>47</v>

--- a/tspi/ciclo-3/plan3-20095495.xlsx
+++ b/tspi/ciclo-3/plan3-20095495.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="469" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="469" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -9122,8 +9122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9300,8 +9300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
